--- a/database/sidis/expdata/3712.xlsx
+++ b/database/sidis/expdata/3712.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Desktop/Research Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Desktop/GIT/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B2F4BA-4D38-DC4B-A352-E1CA68801BFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1DE903-52A3-974A-98B5-0569446DD25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="5800" windowWidth="28040" windowHeight="16460" xr2:uid="{3A76E542-398A-0E46-9B67-B06D6027394F}"/>
+    <workbookView xWindow="520" yWindow="4460" windowWidth="28040" windowHeight="16460" xr2:uid="{3A76E542-398A-0E46-9B67-B06D6027394F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="24">
   <si>
     <t>Q2</t>
   </si>
@@ -94,13 +103,16 @@
   </si>
   <si>
     <t>AUTcollins</t>
+  </si>
+  <si>
+    <t>depol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -456,15 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB3311D-A4AF-9140-9785-9D2B9DD3F02C}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="T2" sqref="T2:T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,8 +534,11 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4.95</v>
       </c>
@@ -582,8 +597,11 @@
       <c r="S2">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5.26</v>
       </c>
@@ -642,8 +660,11 @@
       <c r="S3">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5.21</v>
       </c>
@@ -702,8 +723,11 @@
       <c r="S4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5.42</v>
       </c>
@@ -761,8 +785,11 @@
       <c r="S5">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4.4800000000000004</v>
       </c>
@@ -821,8 +848,11 @@
       <c r="S6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4.6399999999999997</v>
       </c>
@@ -881,8 +911,11 @@
       <c r="S7">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4.8899999999999997</v>
       </c>
@@ -941,8 +974,11 @@
       <c r="S8">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4.93</v>
       </c>
@@ -1000,8 +1036,11 @@
       <c r="S9">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4.38</v>
       </c>
@@ -1060,8 +1099,11 @@
       <c r="S10">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4.38</v>
       </c>
@@ -1120,8 +1162,11 @@
       <c r="S11">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4.6500000000000004</v>
       </c>
@@ -1180,8 +1225,11 @@
       <c r="S12">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4.84</v>
       </c>
@@ -1239,8 +1287,11 @@
       <c r="S13">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4.33</v>
       </c>
@@ -1299,8 +1350,11 @@
       <c r="S14">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4.28</v>
       </c>
@@ -1359,8 +1413,11 @@
       <c r="S15">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4.41</v>
       </c>
@@ -1419,8 +1476,11 @@
       <c r="S16">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4.82</v>
       </c>
@@ -1477,6 +1537,9 @@
       </c>
       <c r="S17">
         <v>0.6</v>
+      </c>
+      <c r="T17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/database/sidis/expdata/3712.xlsx
+++ b/database/sidis/expdata/3712.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malda\Documents\Summer Research\sidisdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Desktop/GIT/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D24C67B-F462-4241-9D43-76639E729487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E7A20F-C269-2C47-B75F-C57E4804CAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{E09B0067-C9EB-46B2-966D-A4BB7E0BAE98}"/>
+    <workbookView xWindow="19340" yWindow="500" windowWidth="34860" windowHeight="20360" xr2:uid="{E09B0067-C9EB-46B2-966D-A4BB7E0BAE98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,18 +496,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FE523B-9060-47B9-B6FF-C1F7A2B8A183}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W60" sqref="W60"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="8.5234375" customWidth="1"/>
-    <col min="7" max="7" width="10.05078125" customWidth="1"/>
-    <col min="8" max="8" width="9.3125" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.48</v>
       </c>
@@ -625,7 +625,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.51</v>
       </c>
@@ -684,7 +684,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.54</v>
       </c>
@@ -743,7 +743,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.61</v>
       </c>
@@ -802,7 +802,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.45</v>
       </c>
@@ -861,7 +861,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.5</v>
       </c>
@@ -920,7 +920,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.51</v>
       </c>
@@ -979,7 +979,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.56</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.4</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.48</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.53</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.54</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.41</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.44</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.49</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.53</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2.1800000000000002</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2.46</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2.54</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2.75</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.95</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2.2400000000000002</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2.4</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2.48</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1.84</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2.06</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2.27</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2.4500000000000002</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1.89</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2.16</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2.42</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3.02</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3.26</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3.3</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3.61</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2.69</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2.98</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3.06</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3.34</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>0.17879999999999999</v>
       </c>
       <c r="H41">
-        <v>150</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I41" t="s">
         <v>19</v>
@@ -2926,7 +2926,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2.42</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2.69</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2.94</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3.19</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2.4300000000000002</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2.4700000000000002</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2.72</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3.08</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4.9800000000000004</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5.3</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>5.32</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5.44</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4.71</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>4.92</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>4.9000000000000004</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>5.07</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4.3499999999999996</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4.49</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4.75</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4.87</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4.3899999999999997</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>4.3499999999999996</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>4.5599999999999996</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>4.8499999999999996</v>
       </c>
